--- a/example_data/excel_example_retracted.xlsx
+++ b/example_data/excel_example_retracted.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="256" documentId="11_F25DC773A252ABDACC1048ED099E4FC05ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E89B1C66-D3C9-46CC-8293-F400B633519C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="From a retracted paper" sheetId="1" r:id="rId1"/>
@@ -205,11 +205,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -498,7 +497,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
@@ -518,7 +517,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>8</v>
       </c>
     </row>
@@ -546,10 +545,10 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="7">
         <v>30</v>
       </c>
       <c r="C5" s="2">
@@ -558,7 +557,7 @@
       <c r="D5" s="2">
         <v>6</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="7">
         <v>30</v>
       </c>
       <c r="F5" s="2">
@@ -569,10 +568,10 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="7">
         <v>30</v>
       </c>
       <c r="C6" s="2">
@@ -581,7 +580,7 @@
       <c r="D6" s="2">
         <v>5</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="7">
         <v>30</v>
       </c>
       <c r="F6" s="2">
@@ -592,94 +591,94 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="8">
-        <v>30</v>
-      </c>
-      <c r="C7" s="6">
+      <c r="B7" s="7">
+        <v>30</v>
+      </c>
+      <c r="C7" s="5">
         <v>55</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="5">
         <v>7</v>
       </c>
-      <c r="E7" s="8">
-        <v>30</v>
-      </c>
-      <c r="F7" s="6">
+      <c r="E7" s="7">
+        <v>30</v>
+      </c>
+      <c r="F7" s="5">
         <v>55</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="5">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="8">
-        <v>30</v>
-      </c>
-      <c r="C8" s="8">
+      <c r="B8" s="7">
+        <v>30</v>
+      </c>
+      <c r="C8" s="7">
         <v>111</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="7">
         <v>34</v>
       </c>
-      <c r="E8" s="8">
-        <v>30</v>
-      </c>
-      <c r="F8" s="8">
+      <c r="E8" s="7">
+        <v>30</v>
+      </c>
+      <c r="F8" s="7">
         <v>106</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="7">
         <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="8">
-        <v>30</v>
-      </c>
-      <c r="C9" s="8">
+      <c r="B9" s="7">
+        <v>30</v>
+      </c>
+      <c r="C9" s="7">
         <v>136</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="7">
         <v>31</v>
       </c>
-      <c r="E9" s="8">
-        <v>30</v>
-      </c>
-      <c r="F9" s="8">
+      <c r="E9" s="7">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7">
         <v>131</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="7">
         <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="8">
-        <v>30</v>
-      </c>
-      <c r="C10" s="8">
+      <c r="B10" s="7">
+        <v>30</v>
+      </c>
+      <c r="C10" s="7">
         <v>217</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="7">
         <v>105</v>
       </c>
-      <c r="E10" s="8">
-        <v>30</v>
-      </c>
-      <c r="F10" s="8">
+      <c r="E10" s="7">
+        <v>30</v>
+      </c>
+      <c r="F10" s="7">
         <v>215</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="7">
         <v>94</v>
       </c>
     </row>
@@ -701,143 +700,143 @@
       <c r="D12" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="7">
         <v>2</v>
       </c>
-      <c r="C13" s="8">
-        <v>30</v>
-      </c>
-      <c r="D13" s="8">
+      <c r="C13" s="7">
+        <v>30</v>
+      </c>
+      <c r="D13" s="7">
         <v>3</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="7">
         <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="7">
         <v>2</v>
       </c>
-      <c r="C14" s="8">
-        <v>30</v>
-      </c>
-      <c r="D14" s="8">
+      <c r="C14" s="7">
+        <v>30</v>
+      </c>
+      <c r="D14" s="7">
         <v>2</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="7">
         <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="7">
         <v>16</v>
       </c>
-      <c r="C15" s="8">
-        <v>30</v>
-      </c>
-      <c r="D15" s="8">
+      <c r="C15" s="7">
+        <v>30</v>
+      </c>
+      <c r="D15" s="7">
         <v>15</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="7">
         <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16" s="7">
         <v>6</v>
       </c>
-      <c r="C16" s="8">
-        <v>30</v>
-      </c>
-      <c r="D16" s="8">
+      <c r="C16" s="7">
+        <v>30</v>
+      </c>
+      <c r="D16" s="7">
         <v>6</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="7">
         <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="7">
         <v>6</v>
       </c>
-      <c r="C17" s="8">
-        <v>30</v>
-      </c>
-      <c r="D17" s="8">
+      <c r="C17" s="7">
+        <v>30</v>
+      </c>
+      <c r="D17" s="7">
         <v>6</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="7">
         <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B18" s="7">
         <v>3</v>
       </c>
-      <c r="C18" s="8">
-        <v>30</v>
-      </c>
-      <c r="D18" s="8">
+      <c r="C18" s="7">
+        <v>30</v>
+      </c>
+      <c r="D18" s="7">
         <v>4</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18" s="7">
         <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="8">
+      <c r="B19" s="7">
         <v>3</v>
       </c>
-      <c r="C19" s="8">
-        <v>30</v>
-      </c>
-      <c r="D19" s="8">
+      <c r="C19" s="7">
+        <v>30</v>
+      </c>
+      <c r="D19" s="7">
         <v>3</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E19" s="7">
         <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="8">
+      <c r="B20" s="7">
         <v>18</v>
       </c>
-      <c r="C20" s="8">
-        <v>30</v>
-      </c>
-      <c r="D20" s="8">
+      <c r="C20" s="7">
+        <v>30</v>
+      </c>
+      <c r="D20" s="7">
         <v>17</v>
       </c>
-      <c r="E20" s="8">
+      <c r="E20" s="7">
         <v>30</v>
       </c>
     </row>
@@ -851,8 +850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EC2554E-D9C1-4BFE-95A2-16059467A833}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
